--- a/4 четверть_6_JavaScript_Nodejs.xlsx
+++ b/4 четверть_6_JavaScript_Nodejs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12468F51-4022-46E1-BB96-D800004C24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53809535-F52E-4E47-8FBD-CD6BDFEDA642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,11 @@
     <sheet name="empty" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="520">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -6541,17 +6540,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>app.get('/articles/:id', (req, res) =&gt; {
-    const article = articles.find((article) =&gt; article.id === Number(req.params.id));
-    if (article) {
-    	res.send({article});
-    } else {
-    	res.status(404);
-    	res.send({ articles: null });
-    }
-})</t>
-  </si>
-  <si>
     <t>get '/articles'</t>
   </si>
   <si>
@@ -6771,92 +6759,6 @@
       </rPr>
       <t>);</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Очень важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Если мы получили в URL переменную, то такая переменная </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>как правило</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> имеет тип Number. Обработчик должен иметь вид /articles/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Доступ к этому параметру через </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>req.params.id</t>
-    </r>
-  </si>
-  <si>
-    <t>get '/articles/:id'
-req.params.id</t>
   </si>
   <si>
     <t>post '/articles'
@@ -7107,9 +7009,6 @@
   </si>
   <si>
     <t>Лекция 4 часть 5</t>
-  </si>
-  <si>
-    <t>Лекция 4 - 01 01 52</t>
   </si>
   <si>
     <r>
@@ -8369,23 +8268,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">смотри xls sheet - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JOI - Валидация данных</t>
-    </r>
-  </si>
-  <si>
     <t>Семинар 4 ECMASCRIPT - 00 17 00</t>
   </si>
   <si>
@@ -8494,224 +8376,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">function </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>checkParams</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(schema) {
-	return (req, res, next) =&gt; {
-		const validationResult = schema.validate(req.params);
-    	if (validationResult.error) {
-        	return res.status(400).send(validationResult.error.details)
-    	}
-    	next();
-	}
-}
-function </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>checkBody</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(schema) {
-	return (req, res, next) =&gt; {
-		const validationResult = schema.validate(req.body);
-    	if (validationResult.error) {
-        	return res.status(400).send(validationResult.error.details)
-    	}
-    	next();
-	}
-}
-module.exports = { checkBody, checkParams };</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">const express = require('express');
-const { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>checkBody</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>checkParams</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } = require(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'./validation/validator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">');
-const { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>idSchema</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>articleSchema</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> } = require('</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./validation/schema</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>');
-const app = express();
-let uniqueID = 0;
-const articles = [];
-app.use(express.json());</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">/**
 * Получить коокретную статью
 */
@@ -8984,16 +8648,605 @@
       <t>REST API в express. Обработка несуществующих роутов</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const express = require('express');
+const { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkParams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } = require(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'./validation/validator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">');
+const { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>articleSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } = require('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./validation/schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">');
+const app = express();
+let uniqueID = 0;
+const articles = [];
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app.use(express.json());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> app.use(express.json()); данная строка указывает нашему серверу, что он будет принимать ответы только в виде JSON. Без этого уточнения данные будут приниматься некоррктно - сервер не сможет понять в каком они формате</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app.use(express.json()); данная строка указывает нашему серверу, что он будет принимать ответы только в виде JSON. Без этого уточнения данные будут приниматься некоррктно - сервер не сможет понять в каком они формате</t>
+    </r>
+  </si>
+  <si>
+    <t>get '/articles/:id'
+req.params.id
+req.query… - /?id=3;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если мы получили в URL переменную, то такая переменная </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>как правило</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> имеет тип Number. Обработчик должен иметь вид /articles/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Доступ к этому параметру через </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>req.params.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Дополнительно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Как только мы указываем знак : , то сервер сразу же создает объект params с ключом id. То есть мы можем создать несколько параметров с разными ключами, а затем обратиться к ним</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.get('/articles/:id', (req, res) =&gt; {
+    const article = articles.find((article) =&gt; article.id === Number(req.params.id)); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//можно также использовать req.query… для запросов формата - /?id=3;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    if (article) {
+    	res.send({article});
+    } else {
+    	res.status(404);
+    	res.send({ articles: null, message: "Пользователь не найден" });
+    }
+})</t>
+    </r>
+  </si>
+  <si>
+    <t>Лекция 4 - 01 01 52
+Семинар 4 - 01 53 00</t>
+  </si>
+  <si>
+    <r>
+      <t>Лекция 4 - 01 01 52
+Семинар 4 - 01 53 00
+смотри</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xls sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JOI - Валидация данных</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkParams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(schema) {
+	return (req, res, next) =&gt; {
+		const validationResult = schema.validate(req.params);
+    	if (validationResult.error) {
+        	return res.status(400).send({ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error: validationResult.error.details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> })
+    	}
+    	next();
+	}
+}
+function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(schema) {
+	return (req, res, next) =&gt; {
+		const validationResult = schema.validate(req.body);
+    	if (validationResult.error) {
+        	return res.status(400).send(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ error: validationResult.error.details }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+    	}
+    	next();
+	}
+}
+module.exports = { checkBody, checkParams };</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар 4 - 02 10 00 - Самоизучение! Очень много полезной информации об организации серверов</t>
+  </si>
+  <si>
+    <t>Лекция 4 часть 7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Урок 4. Написание API с применением подхода REST
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REST API в express. Router</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://metanit.com/web/nodejs/4.16.php</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9409,10 +9662,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9430,22 +9683,22 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9457,28 +9710,28 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9487,82 +9740,149 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9571,105 +9891,56 @@
     <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10660,6 +10931,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1583764</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>601586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3478141</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>1264470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B311EC-E7C2-EE19-897F-D62D5F028126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4101352" y="147592880"/>
+          <a:ext cx="1894377" cy="662884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205763</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>336176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3300637</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>1763059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D58C454-807B-8378-FF47-29A4DD129F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11232351" y="148619882"/>
+          <a:ext cx="3094874" cy="1426883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11018,10 +11377,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V280"/>
+  <dimension ref="A1:V283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11247,15 +11606,15 @@
         <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="83" t="s">
-        <v>489</v>
+      <c r="B25" s="82" t="s">
+        <v>484</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>60</v>
@@ -11273,7 +11632,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="80" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11561,7 +11920,7 @@
       <c r="U59" s="6"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="81" t="s">
         <v>101</v>
       </c>
       <c r="C60" s="21" t="s">
@@ -13022,8 +13381,11 @@
       </c>
     </row>
     <row r="230" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+      <c r="B230" s="86" t="s">
+        <v>509</v>
+      </c>
       <c r="C230" s="68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.35">
@@ -13034,83 +13396,84 @@
     </row>
     <row r="232" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A232" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="B232" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C232" s="68" t="s">
         <v>410</v>
       </c>
-      <c r="B232" s="68" t="s">
-        <v>413</v>
-      </c>
-      <c r="C232" s="68" t="s">
-        <v>411</v>
-      </c>
       <c r="D232" s="67" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="233" spans="1:21" ht="145" x14ac:dyDescent="0.35">
-      <c r="A233" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B233" s="68" t="s">
-        <v>414</v>
-      </c>
-      <c r="C233" s="68" t="s">
-        <v>409</v>
+    </row>
+    <row r="233" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="86" t="s">
+        <v>510</v>
+      </c>
+      <c r="B233" s="86" t="s">
+        <v>511</v>
+      </c>
+      <c r="C233" s="86" t="s">
+        <v>512</v>
       </c>
       <c r="D233" s="75" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" s="74" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B234" s="68"/>
       <c r="C234" s="68"/>
       <c r="D234" s="75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A235" s="68" t="s">
-        <v>416</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B235" s="86"/>
       <c r="C235" s="68" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D235" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D236" s="75" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A237" s="73" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C237" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D238" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A239" s="75" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.35">
@@ -13130,13 +13493,13 @@
     </row>
     <row r="241" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="75" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C241" s="76" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D241" s="75" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E241" s="1"/>
       <c r="G241" s="1"/>
@@ -13150,15 +13513,15 @@
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" s="77" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="243" spans="1:21" ht="406" x14ac:dyDescent="0.35">
       <c r="B243" s="73" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C243" s="73" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.35">
@@ -13178,10 +13541,10 @@
     </row>
     <row r="245" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="75" t="s">
-        <v>436</v>
-      </c>
-      <c r="C245" s="85" t="s">
-        <v>513</v>
+        <v>433</v>
+      </c>
+      <c r="C245" s="83" t="s">
+        <v>506</v>
       </c>
       <c r="D245" s="75"/>
       <c r="E245" s="1"/>
@@ -13195,8 +13558,8 @@
       <c r="U245" s="1"/>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A246" s="87" t="s">
-        <v>511</v>
+      <c r="A246" s="85" t="s">
+        <v>504</v>
       </c>
       <c r="D246" s="75"/>
       <c r="E246" s="1"/>
@@ -13211,8 +13574,8 @@
     </row>
     <row r="247" spans="1:21" ht="116" x14ac:dyDescent="0.35">
       <c r="B247" s="73"/>
-      <c r="C247" s="83" t="s">
-        <v>495</v>
+      <c r="C247" s="82" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.35">
@@ -13230,15 +13593,15 @@
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
     </row>
-    <row r="249" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="82" t="s">
-        <v>490</v>
+    <row r="249" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="81" t="s">
+        <v>485</v>
       </c>
       <c r="C249" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="D249" s="75" t="s">
-        <v>437</v>
+        <v>434</v>
+      </c>
+      <c r="D249" s="91" t="s">
+        <v>514</v>
       </c>
       <c r="E249" s="1"/>
       <c r="G249" s="1"/>
@@ -13252,16 +13615,16 @@
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" s="77" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B250" s="73" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C250" s="74" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D250" s="77" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E250" s="1"/>
       <c r="G250" s="1"/>
@@ -13275,64 +13638,62 @@
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="B251" s="84" t="s">
-        <v>487</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B251" s="88"/>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" s="73"/>
       <c r="C252" s="73" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D252" s="75" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="254" spans="1:21" ht="87" x14ac:dyDescent="0.35">
       <c r="A254" s="73"/>
       <c r="B254" s="73" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C254" s="73" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D254" s="73" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="79" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="256" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A256" s="73"/>
       <c r="C256" s="73" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D256" s="73" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="79" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="258" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A258" s="73"/>
       <c r="C258" s="73" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D258" s="75" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.35">
@@ -13351,11 +13712,11 @@
       <c r="U259" s="1"/>
     </row>
     <row r="260" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="82" t="s">
-        <v>490</v>
-      </c>
-      <c r="C260" s="85" t="s">
-        <v>491</v>
+      <c r="A260" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="C260" s="83" t="s">
+        <v>486</v>
       </c>
       <c r="D260" s="75"/>
       <c r="E260" s="1"/>
@@ -13369,113 +13730,158 @@
       <c r="U260" s="1"/>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A261" s="86" t="s">
+      <c r="A261" s="84" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+      <c r="B262" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C262" s="82" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A263" s="84" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="B264" s="82" t="s">
+        <v>495</v>
+      </c>
+      <c r="C264" s="89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A265" s="84" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+      <c r="B266" s="86" t="s">
+        <v>508</v>
+      </c>
+      <c r="C266" s="86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A267" s="84" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+      <c r="C268" s="82" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A269" s="84" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="C270" s="82" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A271" s="84" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="C272" s="82" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A273" s="84" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="C274" s="82" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="174" x14ac:dyDescent="0.35">
-      <c r="C262" s="83" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A263" s="86" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="264" spans="1:21" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="B264" s="83" t="s">
-        <v>500</v>
-      </c>
-      <c r="C264" s="83" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A265" s="86" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="266" spans="1:21" ht="145" x14ac:dyDescent="0.35">
-      <c r="C266" s="83" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A267" s="86" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="268" spans="1:21" ht="87" x14ac:dyDescent="0.35">
-      <c r="C268" s="83" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A269" s="86" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="270" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="C270" s="83" t="s">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A275" s="84" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A271" s="86" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="272" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="C272" s="83" t="s">
+    <row r="276" spans="1:21" ht="232" x14ac:dyDescent="0.35">
+      <c r="C276" s="82" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A277" s="85" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="86" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="C274" s="83" t="s">
+    <row r="278" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+      <c r="C278" s="82" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A279" s="85" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="86" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="C276" s="83" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="87" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="C278" s="83" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="87" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C280" s="83" t="s">
-        <v>496</v>
-      </c>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C280" s="82" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A281" s="5"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
+      <c r="R281" s="1"/>
+      <c r="T281" s="1"/>
+      <c r="U281" s="1"/>
+    </row>
+    <row r="282" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A282" s="92" t="s">
+        <v>517</v>
+      </c>
+      <c r="C282" s="93" t="s">
+        <v>518</v>
+      </c>
+      <c r="D282" s="75"/>
+      <c r="E282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+      <c r="R282" s="1"/>
+      <c r="T282" s="1"/>
+      <c r="U282" s="1"/>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B283" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C283" s="86"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13581,15 +13987,15 @@
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>489</v>
+      <c r="B5" s="82" t="s">
+        <v>484</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>60</v>
@@ -13607,7 +14013,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="80" t="s">
         <v>66</v>
       </c>
     </row>
@@ -13980,8 +14386,8 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14032,13 +14438,13 @@
     </row>
     <row r="2" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="75" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>474</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>437</v>
+        <v>470</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>513</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -14052,16 +14458,16 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="77" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
@@ -14075,139 +14481,139 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="73"/>
       <c r="C5" s="73" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="73"/>
       <c r="B7" s="73" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="79" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="73"/>
       <c r="B9" s="73" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="79" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="73"/>
       <c r="C11" s="73" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="74" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="73" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C14" s="73" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="73" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C17" s="73" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="77" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="73" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C20" s="73" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="77" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="232" x14ac:dyDescent="0.35">
       <c r="B22" s="73" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="87" x14ac:dyDescent="0.35">
       <c r="C23" s="73" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -14227,10 +14633,10 @@
     </row>
     <row r="25" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="75" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C25" s="76" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D25" s="75"/>
       <c r="E25" s="1"/>
@@ -14245,44 +14651,44 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="87" x14ac:dyDescent="0.35">
       <c r="B27" s="73" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C28" s="73" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B29" s="73" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="74" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="87" x14ac:dyDescent="0.35">
       <c r="B31" s="73" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -14334,12 +14740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
